--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -38,6 +38,30 @@
   </si>
   <si>
     <t>1 uur</t>
+  </si>
+  <si>
+    <t>0,5 uur</t>
+  </si>
+  <si>
+    <t>Besproken wat er nog meer in ons NIAM schema moest komen te staan</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t>Een "GO" gekregen voor ons project</t>
+  </si>
+  <si>
+    <t>Groepsgesprek met Robert gehad</t>
+  </si>
+  <si>
+    <t>Bezig geweest met het uitwerken van de models</t>
+  </si>
+  <si>
+    <t>Video's gezien over ASP.NET</t>
+  </si>
+  <si>
+    <t>Models afgemaakt</t>
   </si>
 </sst>
 </file>
@@ -595,7 +619,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -695,7 +719,9 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -706,14 +732,20 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="N5" s="37">
+        <v>40949</v>
+      </c>
       <c r="O5" s="22"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -724,14 +756,20 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="37">
+        <v>40953</v>
+      </c>
       <c r="O6" s="22"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -742,14 +780,20 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="37">
+        <v>40953</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -760,14 +804,20 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="37">
+        <v>40955</v>
+      </c>
       <c r="O8" s="22"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -778,14 +828,20 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="37">
+        <v>40961</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -796,9 +852,13 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="N10" s="37">
+        <v>40961</v>
+      </c>
       <c r="O10" s="22"/>
       <c r="P10" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Models afgemaakt</t>
+  </si>
+  <si>
+    <t>Unit tests afgemaakt</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -863,7 +866,9 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -874,9 +879,13 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="37">
+        <v>40961</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Unit tests afgemaakt</t>
+  </si>
+  <si>
+    <t>Foutjes van Eddie gecorrigeerd</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -890,7 +893,9 @@
       <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -901,14 +906,20 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="37">
+        <v>40973</v>
+      </c>
       <c r="O12" s="22"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -919,9 +930,13 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
+      <c r="L13" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="37">
+        <v>40973</v>
+      </c>
       <c r="O13" s="22"/>
       <c r="P13" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Foutjes van Eddie gecorrigeerd</t>
+  </si>
+  <si>
+    <t>In en uitlog systeem gemaakt voor het project</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -941,7 +944,9 @@
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -952,9 +957,13 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="37">
+        <v>40974</v>
+      </c>
       <c r="O14" s="22"/>
       <c r="P14" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>In en uitlog systeem gemaakt voor het project</t>
+  </si>
+  <si>
+    <t>Registratie systeem gemaakt</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -968,7 +971,9 @@
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -979,9 +984,13 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="37">
+        <v>40975</v>
+      </c>
       <c r="O15" s="22"/>
       <c r="P15" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Registratie systeem gemaakt</t>
+  </si>
+  <si>
+    <t>Sidebar widget gemaakt voor de tags</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -995,7 +998,9 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -1006,9 +1011,13 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
+      <c r="L16" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="37">
+        <v>40976</v>
+      </c>
       <c r="O16" s="22"/>
       <c r="P16" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Sidebar widget gemaakt voor de tags</t>
+  </si>
+  <si>
+    <t>Activatie pagina gemaakt waar mensen eerst moeten activeren voordat ze mogen inloggen</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1022,7 +1025,9 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1033,9 +1038,13 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="37">
+        <v>40976</v>
+      </c>
       <c r="O17" s="22"/>
       <c r="P17" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Activatie pagina gemaakt waar mensen eerst moeten activeren voordat ze mogen inloggen</t>
+  </si>
+  <si>
+    <t>Detail view voor een question gemaakt</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1052,9 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1060,9 +1065,13 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="N18" s="37">
+        <v>40976</v>
+      </c>
       <c r="O18" s="22"/>
       <c r="P18" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Detail view voor een question gemaakt</t>
+  </si>
+  <si>
+    <t>Statische pagina´s aangemaakt voor registreren en wachtwoord vergeten en het wachtwoord vergeten logica afgemaakt</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1079,9 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -1087,9 +1092,13 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
+      <c r="L19" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="N19" s="37">
+        <v>40980</v>
+      </c>
       <c r="O19" s="22"/>
       <c r="P19" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Statische pagina´s aangemaakt voor registreren en wachtwoord vergeten en het wachtwoord vergeten logica afgemaakt</t>
+  </si>
+  <si>
+    <t>Detail view voor tags gemaakt</t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1103,7 +1106,9 @@
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1114,9 +1119,13 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="N20" s="37">
+        <v>40980</v>
+      </c>
       <c r="O20" s="22"/>
       <c r="P20" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Detail view voor tags gemaakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overleg met Robert </t>
+  </si>
+  <si>
+    <t>Notulen bijgewerkt</t>
+  </si>
+  <si>
+    <t>0,18 uur</t>
   </si>
 </sst>
 </file>
@@ -646,7 +655,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1139,9 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1141,14 +1152,20 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="L21" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="N21" s="37">
+        <v>40980</v>
+      </c>
       <c r="O21" s="22"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1159,9 +1176,13 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="19"/>
+      <c r="L22" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
+      <c r="N22" s="37">
+        <v>40980</v>
+      </c>
       <c r="O22" s="22"/>
       <c r="P22" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>0,18 uur</t>
+  </si>
+  <si>
+    <t>Gewerkt aan account profiel pagina.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1190,9 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -1198,9 +1203,13 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="19"/>
+      <c r="L23" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="37">
+        <v>40980</v>
+      </c>
       <c r="O23" s="22"/>
       <c r="P23" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -100,7 +100,10 @@
     <t>0,18 uur</t>
   </si>
   <si>
-    <t>Gewerkt aan account profiel pagina.</t>
+    <t>Account profiel pagina gemaakt.</t>
+  </si>
+  <si>
+    <t>Account instellingen pagina gemaakt.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +661,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1208,13 +1211,15 @@
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="37">
-        <v>40980</v>
+        <v>40981</v>
       </c>
       <c r="O23" s="22"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
+      <c r="A24" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1225,9 +1230,13 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="19"/>
+      <c r="L24" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="37">
+        <v>40981</v>
+      </c>
       <c r="O24" s="22"/>
       <c r="P24" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Account instellingen pagina gemaakt.</t>
+  </si>
+  <si>
+    <t>Profiel pagina aangemaakt bij het klikken op een naam</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1244,9 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -1252,9 +1257,13 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="37">
+        <v>40981</v>
+      </c>
       <c r="O25" s="22"/>
       <c r="P25" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Profiel pagina aangemaakt bij het klikken op een naam</t>
+  </si>
+  <si>
+    <t>Admin overzichtje gemaakt van geflaggde comments/ antwoorden/ vrage</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1271,9 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1279,9 +1284,13 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
+      <c r="N26" s="37">
+        <v>40981</v>
+      </c>
       <c r="O26" s="22"/>
       <c r="P26" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>Admin overzichtje gemaakt van geflaggde comments/ antwoorden/ vrage</t>
+  </si>
+  <si>
+    <t>Admin overzichtje afgerond, nu mogelijk een comment te verwijderen</t>
+  </si>
+  <si>
+    <t>(totdat er een overzicht is van vraag + antwoorden en comments)</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -666,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1304,9 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -1306,15 +1317,21 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="19"/>
+      <c r="L27" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
+      <c r="N27" s="37">
+        <v>40981</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -1324,9 +1341,13 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
+      <c r="L28" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
+      <c r="N28" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="O28" s="22"/>
       <c r="P28" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Bezig geweest met stel een vraag + controle of er niet al zo'n soort vraag bestaat</t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1322,7 +1328,7 @@
       </c>
       <c r="M27" s="20"/>
       <c r="N27" s="37">
-        <v>40981</v>
+        <v>40982</v>
       </c>
       <c r="O27" s="22"/>
       <c r="P27" s="5"/>
@@ -1352,7 +1358,9 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -1363,9 +1371,13 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
+      <c r="N29" s="37">
+        <v>40953</v>
+      </c>
       <c r="O29" s="22"/>
       <c r="P29" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>2,5 uur</t>
+  </si>
+  <si>
+    <t>Stel een vraag afgerond, werkt nu compleet</t>
+  </si>
+  <si>
+    <t>3,5 uur</t>
   </si>
 </sst>
 </file>
@@ -682,7 +688,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1382,7 +1388,9 @@
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1393,9 +1401,13 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
+      <c r="N30" s="37">
+        <v>40983</v>
+      </c>
       <c r="O30" s="22"/>
       <c r="P30" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>3,5 uur</t>
+  </si>
+  <si>
+    <t>Steleen vraag netter gemaakt en een bug verholpen in stel een vraag</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1415,9 @@
       <c r="P30" s="5"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -1423,9 +1428,13 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
+      <c r="L31" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="37">
+        <v>40987</v>
+      </c>
       <c r="O31" s="22"/>
       <c r="P31" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Steleen vraag netter gemaakt en een bug verholpen in stel een vraag</t>
+  </si>
+  <si>
+    <t>Begonnen aan database refill</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1439,7 +1442,9 @@
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -1450,9 +1455,13 @@
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
+      <c r="L32" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
+      <c r="N32" s="37">
+        <v>40987</v>
+      </c>
       <c r="O32" s="22"/>
       <c r="P32" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Begonnen aan database refill</t>
+  </si>
+  <si>
+    <t>Vragen + antwoorden opnieuw toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1469,9 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -1477,9 +1482,13 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="18"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="37">
+        <v>40959</v>
+      </c>
       <c r="O33" s="22"/>
       <c r="P33" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Vragen + antwoorden opnieuw toegevoegd</t>
+  </si>
+  <si>
+    <t>Mailer toegevoegd + een mail die gestuurd word op het moment dat je registreerd + activeerd</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1496,9 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1504,9 +1509,13 @@
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
-      <c r="L34" s="19"/>
+      <c r="L34" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
+      <c r="N34" s="37">
+        <v>40959</v>
+      </c>
       <c r="O34" s="22"/>
       <c r="P34" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Mailer toegevoegd + een mail die gestuurd word op het moment dat je registreerd + activeerd</t>
+  </si>
+  <si>
+    <t>Mailer toegevoegd voor wachtwoord kwijt. Dit is nu ook af</t>
+  </si>
+  <si>
+    <t>0,2 uur</t>
   </si>
 </sst>
 </file>
@@ -699,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1455,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1473,7 +1479,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -1490,14 +1496,14 @@
       </c>
       <c r="M33" s="20"/>
       <c r="N33" s="37">
-        <v>40959</v>
+        <v>40987</v>
       </c>
       <c r="O33" s="22"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -1510,7 +1516,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="18"/>
       <c r="L34" s="19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M34" s="20"/>
       <c r="N34" s="37">
@@ -1520,7 +1526,9 @@
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -1531,14 +1539,20 @@
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="19"/>
+      <c r="L35" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
+      <c r="N35" s="37">
+        <v>40959</v>
+      </c>
       <c r="O35" s="22"/>
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -1549,14 +1563,20 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="18"/>
-      <c r="L36" s="19"/>
+      <c r="L36" s="19" t="s">
+        <v>4</v>
+      </c>
       <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
+      <c r="N36" s="37">
+        <v>40988</v>
+      </c>
       <c r="O36" s="22"/>
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
+      <c r="A37" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1567,9 +1587,13 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="19"/>
+      <c r="L37" s="19" t="s">
+        <v>44</v>
+      </c>
       <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
+      <c r="N37" s="37">
+        <v>40988</v>
+      </c>
       <c r="O37" s="22"/>
       <c r="P37" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>0,2 uur</t>
+  </si>
+  <si>
+    <t>Gewerkt aan mail systeem binnen de site</t>
   </si>
 </sst>
 </file>
@@ -705,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1598,7 +1601,9 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -1609,9 +1614,13 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="18"/>
-      <c r="L38" s="19"/>
+      <c r="L38" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
+      <c r="N38" s="37">
+        <v>40990</v>
+      </c>
       <c r="O38" s="22"/>
       <c r="P38" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Gewerkt aan mail systeem binnen de site</t>
+  </si>
+  <si>
+    <t>Verder gewerkt aan mail systeem</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1625,7 +1628,9 @@
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
+      <c r="A39" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -1636,9 +1641,13 @@
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="18"/>
-      <c r="L39" s="19"/>
+      <c r="L39" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
+      <c r="N39" s="37">
+        <v>40991</v>
+      </c>
       <c r="O39" s="22"/>
       <c r="P39" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Verder gewerkt aan mail systeem</t>
+  </si>
+  <si>
+    <t>Deleten van een vraag toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1652,7 +1655,9 @@
       <c r="P39" s="5"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
+      <c r="A40" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1663,9 +1668,13 @@
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
       <c r="K40" s="18"/>
-      <c r="L40" s="19"/>
+      <c r="L40" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
+      <c r="N40" s="37">
+        <v>40991</v>
+      </c>
       <c r="O40" s="22"/>
       <c r="P40" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Deleten van een vraag toegevoegd</t>
+  </si>
+  <si>
+    <t>Deleten van een antwoord en een comment toegevoegd. Admin meuk is nu mogelijk af.</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1679,7 +1682,9 @@
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
+      <c r="A41" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -1690,9 +1695,13 @@
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="18"/>
-      <c r="L41" s="19"/>
+      <c r="L41" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="M41" s="20"/>
-      <c r="N41" s="21"/>
+      <c r="N41" s="37">
+        <v>40995</v>
+      </c>
       <c r="O41" s="22"/>
       <c r="P41" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Deleten van een antwoord en een comment toegevoegd. Admin meuk is nu mogelijk af.</t>
+  </si>
+  <si>
+    <t>Message systeem afgerond</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1709,9 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
+      <c r="A42" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -1717,9 +1722,13 @@
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
       <c r="K42" s="18"/>
-      <c r="L42" s="19"/>
+      <c r="L42" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
+      <c r="N42" s="37">
+        <v>40996</v>
+      </c>
       <c r="O42" s="22"/>
       <c r="P42" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Message systeem afgerond</t>
+  </si>
+  <si>
+    <t>Vote mogelijkheid toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1736,9 @@
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
+      <c r="A43" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -1744,9 +1749,13 @@
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="18"/>
-      <c r="L43" s="19"/>
+      <c r="L43" s="19" t="s">
+        <v>7</v>
+      </c>
       <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
+      <c r="N43" s="37">
+        <v>40996</v>
+      </c>
       <c r="O43" s="22"/>
       <c r="P43" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Vote mogelijkheid toegevoegd</t>
+  </si>
+  <si>
+    <t>Mogelijkheid om een question, answer of een comment te flaggen toe gevoegd</t>
   </si>
 </sst>
 </file>
@@ -723,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1760,7 +1763,9 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
+      <c r="A44" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1771,9 +1776,13 @@
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
       <c r="K44" s="18"/>
-      <c r="L44" s="19"/>
+      <c r="L44" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M44" s="20"/>
-      <c r="N44" s="21"/>
+      <c r="N44" s="37">
+        <v>40996</v>
+      </c>
       <c r="O44" s="22"/>
       <c r="P44" s="5"/>
     </row>

--- a/Logboeken/logboek Mathijs.xlsx
+++ b/Logboeken/logboek Mathijs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Mathijs Jonker</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>Mogelijkheid om een question, answer of een comment te flaggen toe gevoegd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0,75 uur</t>
+  </si>
+  <si>
+    <t>Admin heeft nu de mogelijkheid om van een vraag, antwoord of comment de flag af te halen</t>
+  </si>
+  <si>
+    <t>Admin panel heeft nu linkjes naar de comment of antwoord waar het op staat</t>
+  </si>
+  <si>
+    <t>0,25 uur</t>
   </si>
 </sst>
 </file>
@@ -727,7 +742,7 @@
   <dimension ref="A1:U386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1802,9 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
+      <c r="A45" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -1798,14 +1815,22 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="21"/>
+      <c r="L45" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M45" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N45" s="37">
+        <v>40996</v>
+      </c>
       <c r="O45" s="22"/>
       <c r="P45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+      <c r="A46" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -1816,9 +1841,13 @@
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
+      <c r="L46" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="M46" s="20"/>
-      <c r="N46" s="21"/>
+      <c r="N46" s="37">
+        <v>40996</v>
+      </c>
       <c r="O46" s="22"/>
       <c r="P46" s="5"/>
     </row>
